--- a/Manuscript_Files_and_Figures/Files_Supplementary/Supplementary File A.xlsx
+++ b/Manuscript_Files_and_Figures/Files_Supplementary/Supplementary File A.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jastley\Documents\MGH\thailand\dissertation\FINAL\HCV_elimination_in_Thailand\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jastley\Documents\MGH\thailand\dissertation\FINAL\Manuscript_Files_and_Figures\Files_Supplementary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34A6621B-4E4B-4759-8B67-8993326C9DEA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{338213DB-82ED-4CE5-A007-AEFFADCB04CB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7790" tabRatio="878" activeTab="15" xr2:uid="{B6CEF16A-3B65-4884-BE1D-43D4DDCE9588}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7790" tabRatio="878" firstSheet="5" activeTab="9" xr2:uid="{B6CEF16A-3B65-4884-BE1D-43D4DDCE9588}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="53" r:id="rId1"/>
@@ -267,7 +267,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1309" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1310" uniqueCount="294">
   <si>
     <t>Age group</t>
   </si>
@@ -1374,10 +1374,10 @@
     <t>Source: https://www.macrotrends.net/countries/THA/thailand/birth-rate</t>
   </si>
   <si>
-    <t>CI95 (%)</t>
+    <t>%</t>
   </si>
   <si>
-    <t>%</t>
+    <t>CI95</t>
   </si>
 </sst>
 </file>
@@ -1385,11 +1385,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
-    <numFmt numFmtId="165" formatCode="0.00000"/>
-    <numFmt numFmtId="166" formatCode="#\ ###\ ###\ ##0;\-#\ ###\ ###\ ##0;0"/>
-    <numFmt numFmtId="168" formatCode="#,##0.00000"/>
-    <numFmt numFmtId="173" formatCode="0.000"/>
-    <numFmt numFmtId="174" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.00000"/>
+    <numFmt numFmtId="165" formatCode="#\ ###\ ###\ ##0;\-#\ ###\ ###\ ##0;0"/>
+    <numFmt numFmtId="166" formatCode="#,##0.00000"/>
+    <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="168" formatCode="#,##0.0000"/>
   </numFmts>
   <fonts count="63" x14ac:knownFonts="1">
     <font>
@@ -2052,7 +2052,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2137,7 +2137,7 @@
     <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="13" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2155,7 +2155,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2231,13 +2231,13 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="173" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="173" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2270,10 +2270,10 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2291,13 +2291,13 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="174" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2396,9 +2396,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2416,6 +2413,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4363,8 +4363,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DAE5332-8D66-4A8C-A9A0-90978832453D}">
   <dimension ref="A1:AF76"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -4404,7 +4404,7 @@
         <v>232</v>
       </c>
       <c r="G1" s="117" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H1" s="117"/>
       <c r="I1" s="64"/>
@@ -4838,11 +4838,13 @@
       <c r="B17" s="68"/>
       <c r="C17" s="67"/>
       <c r="D17" s="68" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E17" s="68"/>
       <c r="F17" s="68"/>
-      <c r="G17" s="68"/>
+      <c r="G17" s="68" t="s">
+        <v>292</v>
+      </c>
       <c r="H17" s="68"/>
       <c r="L17" s="68"/>
     </row>
@@ -18097,6 +18099,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="BA1:BC1"/>
+    <mergeCell ref="AI1:AK1"/>
+    <mergeCell ref="AL1:AN1"/>
+    <mergeCell ref="AO1:AQ1"/>
+    <mergeCell ref="AR1:AT1"/>
+    <mergeCell ref="AU1:AW1"/>
+    <mergeCell ref="AX1:AZ1"/>
     <mergeCell ref="AF1:AH1"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
@@ -18108,13 +18117,6 @@
     <mergeCell ref="W1:Y1"/>
     <mergeCell ref="Z1:AB1"/>
     <mergeCell ref="AC1:AE1"/>
-    <mergeCell ref="BA1:BC1"/>
-    <mergeCell ref="AI1:AK1"/>
-    <mergeCell ref="AL1:AN1"/>
-    <mergeCell ref="AO1:AQ1"/>
-    <mergeCell ref="AR1:AT1"/>
-    <mergeCell ref="AU1:AW1"/>
-    <mergeCell ref="AX1:AZ1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18153,101 +18155,101 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:58" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="B1" s="147">
+      <c r="B1" s="146">
         <v>2022</v>
       </c>
-      <c r="C1" s="148"/>
-      <c r="D1" s="149"/>
-      <c r="E1" s="147">
+      <c r="C1" s="147"/>
+      <c r="D1" s="148"/>
+      <c r="E1" s="146">
         <v>2023</v>
       </c>
-      <c r="F1" s="148"/>
-      <c r="G1" s="149"/>
-      <c r="H1" s="147">
+      <c r="F1" s="147"/>
+      <c r="G1" s="148"/>
+      <c r="H1" s="146">
         <v>2024</v>
       </c>
-      <c r="I1" s="148"/>
-      <c r="J1" s="149"/>
-      <c r="K1" s="147">
+      <c r="I1" s="147"/>
+      <c r="J1" s="148"/>
+      <c r="K1" s="146">
         <v>2025</v>
       </c>
-      <c r="L1" s="148"/>
-      <c r="M1" s="149"/>
-      <c r="N1" s="147">
+      <c r="L1" s="147"/>
+      <c r="M1" s="148"/>
+      <c r="N1" s="146">
         <v>2026</v>
       </c>
-      <c r="O1" s="148"/>
-      <c r="P1" s="149"/>
-      <c r="Q1" s="147">
+      <c r="O1" s="147"/>
+      <c r="P1" s="148"/>
+      <c r="Q1" s="146">
         <v>2027</v>
       </c>
-      <c r="R1" s="148"/>
-      <c r="S1" s="149"/>
-      <c r="T1" s="147">
+      <c r="R1" s="147"/>
+      <c r="S1" s="148"/>
+      <c r="T1" s="146">
         <v>2028</v>
       </c>
-      <c r="U1" s="148"/>
-      <c r="V1" s="149"/>
-      <c r="W1" s="147">
+      <c r="U1" s="147"/>
+      <c r="V1" s="148"/>
+      <c r="W1" s="146">
         <v>2029</v>
       </c>
-      <c r="X1" s="148"/>
-      <c r="Y1" s="149"/>
-      <c r="Z1" s="147">
+      <c r="X1" s="147"/>
+      <c r="Y1" s="148"/>
+      <c r="Z1" s="146">
         <v>2030</v>
       </c>
-      <c r="AA1" s="148"/>
-      <c r="AB1" s="149"/>
-      <c r="AC1" s="147">
+      <c r="AA1" s="147"/>
+      <c r="AB1" s="148"/>
+      <c r="AC1" s="146">
         <v>2031</v>
       </c>
-      <c r="AD1" s="148"/>
-      <c r="AE1" s="149"/>
-      <c r="AF1" s="147">
+      <c r="AD1" s="147"/>
+      <c r="AE1" s="148"/>
+      <c r="AF1" s="146">
         <v>2032</v>
       </c>
-      <c r="AG1" s="148"/>
-      <c r="AH1" s="149"/>
-      <c r="AI1" s="147">
+      <c r="AG1" s="147"/>
+      <c r="AH1" s="148"/>
+      <c r="AI1" s="146">
         <v>2033</v>
       </c>
-      <c r="AJ1" s="148"/>
-      <c r="AK1" s="149"/>
-      <c r="AL1" s="147">
+      <c r="AJ1" s="147"/>
+      <c r="AK1" s="148"/>
+      <c r="AL1" s="146">
         <v>2034</v>
       </c>
-      <c r="AM1" s="148"/>
-      <c r="AN1" s="149"/>
-      <c r="AO1" s="147">
+      <c r="AM1" s="147"/>
+      <c r="AN1" s="148"/>
+      <c r="AO1" s="146">
         <v>2035</v>
       </c>
-      <c r="AP1" s="148"/>
-      <c r="AQ1" s="149"/>
-      <c r="AR1" s="147">
+      <c r="AP1" s="147"/>
+      <c r="AQ1" s="148"/>
+      <c r="AR1" s="146">
         <v>2036</v>
       </c>
-      <c r="AS1" s="148"/>
-      <c r="AT1" s="149"/>
-      <c r="AU1" s="147">
+      <c r="AS1" s="147"/>
+      <c r="AT1" s="148"/>
+      <c r="AU1" s="146">
         <v>2037</v>
       </c>
-      <c r="AV1" s="148"/>
-      <c r="AW1" s="149"/>
-      <c r="AX1" s="147">
+      <c r="AV1" s="147"/>
+      <c r="AW1" s="148"/>
+      <c r="AX1" s="146">
         <v>2038</v>
       </c>
-      <c r="AY1" s="148"/>
-      <c r="AZ1" s="149"/>
-      <c r="BA1" s="147">
+      <c r="AY1" s="147"/>
+      <c r="AZ1" s="148"/>
+      <c r="BA1" s="146">
         <v>2039</v>
       </c>
-      <c r="BB1" s="148"/>
-      <c r="BC1" s="149"/>
-      <c r="BD1" s="147">
+      <c r="BB1" s="147"/>
+      <c r="BC1" s="148"/>
+      <c r="BD1" s="146">
         <v>2040</v>
       </c>
-      <c r="BE1" s="148"/>
-      <c r="BF1" s="149"/>
+      <c r="BE1" s="147"/>
+      <c r="BF1" s="148"/>
     </row>
     <row r="2" spans="1:58" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
@@ -23078,12 +23080,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="K1:M1"/>
     <mergeCell ref="T1:V1"/>
     <mergeCell ref="BA1:BC1"/>
     <mergeCell ref="BD1:BF1"/>
@@ -23097,6 +23093,12 @@
     <mergeCell ref="AR1:AT1"/>
     <mergeCell ref="AU1:AW1"/>
     <mergeCell ref="AX1:AZ1"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="K1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -23106,7 +23108,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0551F39-8A71-4AA4-A1F8-F43F491D4018}">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
@@ -23448,10 +23450,10 @@
       <c r="A19" s="78" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="143" t="s">
+      <c r="B19" s="149" t="s">
         <v>201</v>
       </c>
-      <c r="C19" s="143"/>
+      <c r="C19" s="149"/>
       <c r="J19" s="11" t="s">
         <v>110</v>
       </c>
@@ -29707,7 +29709,7 @@
       <c r="W4" s="97">
         <v>0.81821862348178143</v>
       </c>
-      <c r="X4" s="145" t="s">
+      <c r="X4" s="144" t="s">
         <v>146</v>
       </c>
     </row>
@@ -29781,7 +29783,7 @@
       <c r="W5" s="97">
         <v>0.7877963466770308</v>
       </c>
-      <c r="X5" s="145"/>
+      <c r="X5" s="144"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A6" s="15">
@@ -29853,7 +29855,7 @@
       <c r="W6" s="97">
         <v>0.74527252502780861</v>
       </c>
-      <c r="X6" s="145"/>
+      <c r="X6" s="144"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A7" s="15">
@@ -29925,7 +29927,7 @@
       <c r="W7" s="97">
         <v>0.8041563930961606</v>
       </c>
-      <c r="X7" s="145"/>
+      <c r="X7" s="144"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A8" s="15">
@@ -29997,7 +29999,7 @@
       <c r="W8" s="97">
         <v>0.84065202927478377</v>
       </c>
-      <c r="X8" s="145"/>
+      <c r="X8" s="144"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A9" s="15">
@@ -30069,7 +30071,7 @@
       <c r="W9" s="97">
         <v>0.87133041848844472</v>
       </c>
-      <c r="X9" s="145"/>
+      <c r="X9" s="144"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A10" s="15">
@@ -30141,7 +30143,7 @@
       <c r="W10" s="97">
         <v>0.90075669383003487</v>
       </c>
-      <c r="X10" s="145"/>
+      <c r="X10" s="144"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A11" s="15">
@@ -30213,7 +30215,7 @@
       <c r="W11" s="97">
         <v>0.90296495956873313</v>
       </c>
-      <c r="X11" s="145"/>
+      <c r="X11" s="144"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A12" s="49">
@@ -30285,7 +30287,7 @@
       <c r="W12" s="98">
         <v>0.20265056198624393</v>
       </c>
-      <c r="X12" s="145"/>
+      <c r="X12" s="144"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A13" s="49">
@@ -30357,7 +30359,7 @@
       <c r="W13" s="98">
         <v>0.18708538156827184</v>
       </c>
-      <c r="X13" s="145"/>
+      <c r="X13" s="144"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A14" s="49">
@@ -30429,7 +30431,7 @@
       <c r="W14" s="98">
         <v>0.18111885123295868</v>
       </c>
-      <c r="X14" s="145"/>
+      <c r="X14" s="144"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A15" s="49">
@@ -30501,7 +30503,7 @@
       <c r="W15" s="98">
         <v>0.17426529598349066</v>
       </c>
-      <c r="X15" s="145"/>
+      <c r="X15" s="144"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A16" s="49">
@@ -30573,7 +30575,7 @@
       <c r="W16" s="98">
         <v>0.40478790424191519</v>
       </c>
-      <c r="X16" s="145"/>
+      <c r="X16" s="144"/>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A17" s="49">
@@ -30645,7 +30647,7 @@
       <c r="W17" s="98">
         <v>0.33415841584158418</v>
       </c>
-      <c r="X17" s="145"/>
+      <c r="X17" s="144"/>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A18" s="49">
@@ -30717,7 +30719,7 @@
       <c r="W18" s="98">
         <v>0.2978128597270186</v>
       </c>
-      <c r="X18" s="145"/>
+      <c r="X18" s="144"/>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A19" s="49">
@@ -30789,7 +30791,7 @@
       <c r="W19" s="98">
         <v>0.30175549580895145</v>
       </c>
-      <c r="X19" s="145"/>
+      <c r="X19" s="144"/>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A20" s="49">
@@ -30861,7 +30863,7 @@
       <c r="W20" s="98">
         <v>0.26555086979441223</v>
       </c>
-      <c r="X20" s="145"/>
+      <c r="X20" s="144"/>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A21" s="49">
@@ -30933,7 +30935,7 @@
       <c r="W21" s="98">
         <v>0.25802502199946437</v>
       </c>
-      <c r="X21" s="145"/>
+      <c r="X21" s="144"/>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A22" s="48">
@@ -30963,7 +30965,7 @@
       <c r="U22" s="50"/>
       <c r="V22" s="50"/>
       <c r="W22" s="50"/>
-      <c r="X22" s="144" t="s">
+      <c r="X22" s="143" t="s">
         <v>147</v>
       </c>
     </row>
@@ -30995,7 +30997,7 @@
       <c r="U23" s="50"/>
       <c r="V23" s="50"/>
       <c r="W23" s="50"/>
-      <c r="X23" s="144"/>
+      <c r="X23" s="143"/>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A24" s="15">
@@ -31025,7 +31027,7 @@
       <c r="U24" s="50"/>
       <c r="V24" s="50"/>
       <c r="W24" s="50"/>
-      <c r="X24" s="144"/>
+      <c r="X24" s="143"/>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A25" s="15">
@@ -31055,7 +31057,7 @@
       <c r="U25" s="50"/>
       <c r="V25" s="50"/>
       <c r="W25" s="50"/>
-      <c r="X25" s="144"/>
+      <c r="X25" s="143"/>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A26" s="15">
@@ -31085,7 +31087,7 @@
       <c r="U26" s="50"/>
       <c r="V26" s="50"/>
       <c r="W26" s="50"/>
-      <c r="X26" s="144"/>
+      <c r="X26" s="143"/>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A27" s="15">
@@ -31115,7 +31117,7 @@
       <c r="U27" s="50"/>
       <c r="V27" s="50"/>
       <c r="W27" s="50"/>
-      <c r="X27" s="144"/>
+      <c r="X27" s="143"/>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A28" s="15">
@@ -31145,7 +31147,7 @@
       <c r="U28" s="50"/>
       <c r="V28" s="50"/>
       <c r="W28" s="50"/>
-      <c r="X28" s="144"/>
+      <c r="X28" s="143"/>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A29" s="15">
@@ -31175,7 +31177,7 @@
       <c r="U29" s="50"/>
       <c r="V29" s="50"/>
       <c r="W29" s="50"/>
-      <c r="X29" s="144"/>
+      <c r="X29" s="143"/>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A30" s="15">
@@ -31205,7 +31207,7 @@
       <c r="U30" s="50"/>
       <c r="V30" s="50"/>
       <c r="W30" s="50"/>
-      <c r="X30" s="144"/>
+      <c r="X30" s="143"/>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A31" s="15">
@@ -31235,7 +31237,7 @@
       <c r="U31" s="50"/>
       <c r="V31" s="50"/>
       <c r="W31" s="50"/>
-      <c r="X31" s="144"/>
+      <c r="X31" s="143"/>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A32" s="15">
@@ -31265,7 +31267,7 @@
       <c r="U32" s="50"/>
       <c r="V32" s="50"/>
       <c r="W32" s="50"/>
-      <c r="X32" s="144"/>
+      <c r="X32" s="143"/>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A33" s="15">
@@ -31295,7 +31297,7 @@
       <c r="U33" s="50"/>
       <c r="V33" s="50"/>
       <c r="W33" s="50"/>
-      <c r="X33" s="144"/>
+      <c r="X33" s="143"/>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A34" s="15">
@@ -31325,7 +31327,7 @@
       <c r="U34" s="50"/>
       <c r="V34" s="50"/>
       <c r="W34" s="50"/>
-      <c r="X34" s="144"/>
+      <c r="X34" s="143"/>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A35" s="15">
@@ -31355,7 +31357,7 @@
       <c r="U35" s="50"/>
       <c r="V35" s="50"/>
       <c r="W35" s="50"/>
-      <c r="X35" s="144"/>
+      <c r="X35" s="143"/>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A36" s="15">
@@ -31385,7 +31387,7 @@
       <c r="U36" s="50"/>
       <c r="V36" s="50"/>
       <c r="W36" s="50"/>
-      <c r="X36" s="144"/>
+      <c r="X36" s="143"/>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A37" s="15">
@@ -31415,7 +31417,7 @@
       <c r="U37" s="50"/>
       <c r="V37" s="50"/>
       <c r="W37" s="50"/>
-      <c r="X37" s="144"/>
+      <c r="X37" s="143"/>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A38" s="15">
@@ -31445,7 +31447,7 @@
       <c r="U38" s="50"/>
       <c r="V38" s="50"/>
       <c r="W38" s="50"/>
-      <c r="X38" s="144"/>
+      <c r="X38" s="143"/>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A39" s="15">
@@ -31475,7 +31477,7 @@
       <c r="U39" s="50"/>
       <c r="V39" s="50"/>
       <c r="W39" s="50"/>
-      <c r="X39" s="144"/>
+      <c r="X39" s="143"/>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A40" s="15">
@@ -31505,7 +31507,7 @@
       <c r="U40" s="50"/>
       <c r="V40" s="50"/>
       <c r="W40" s="50"/>
-      <c r="X40" s="144"/>
+      <c r="X40" s="143"/>
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A42" t="s">
@@ -33219,7 +33221,7 @@
       <c r="AD20" s="51"/>
     </row>
     <row r="22" spans="1:30" ht="14.75" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A22" s="146" t="s">
+      <c r="A22" s="145" t="s">
         <v>213</v>
       </c>
       <c r="B22" s="105">
@@ -33287,10 +33289,10 @@
       </c>
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.75">
-      <c r="A23" s="146"/>
+      <c r="A23" s="145"/>
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.75">
-      <c r="A24" s="146"/>
+      <c r="A24" s="145"/>
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.75">
       <c r="A25" s="83" t="s">
